--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3AE698-514F-CE4E-8E17-F0EA2EAA27F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B36FF-4566-B34C-9165-E44827533B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -206,13 +206,16 @@
     <t>Logistic Regression</t>
   </si>
   <si>
-    <t>1:00 pm</t>
-  </si>
-  <si>
     <t>No Meetup - Thanksgiving</t>
   </si>
   <si>
     <t>Thanksgiving Break</t>
+  </si>
+  <si>
+    <t>12:30 pm</t>
+  </si>
+  <si>
+    <t>1:30 pm</t>
   </si>
 </sst>
 </file>
@@ -612,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,10 +661,10 @@
         <v>45163</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -891,7 +894,7 @@
         <v>45252</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -950,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1109,7 +1112,7 @@
         <v>45256</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3B36FF-4566-B34C-9165-E44827533B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA64D3B1-3B8E-9C48-B800-E4418BC01C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>1:30 pm</t>
+  </si>
+  <si>
+    <t>-CUyvfaNnFs</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Course</t>
   </si>
 </sst>
 </file>
@@ -616,7 +622,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,6 +677,12 @@
       </c>
       <c r="E2" t="s">
         <v>29</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA64D3B1-3B8E-9C48-B800-E4418BC01C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D2B96-00D4-164E-A0B4-9FCCC4B4D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>01-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>7:00 pm</t>
+  </si>
+  <si>
+    <t>MSDS Orientation</t>
+  </si>
+  <si>
+    <t>u6lqJwynrvc</t>
   </si>
 </sst>
 </file>
@@ -619,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -664,47 +673,47 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>45163</v>
+        <v>45161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>45168</v>
+        <v>45163</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>45175</v>
+        <v>45168</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -713,17 +722,15 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>45182</v>
+        <v>45175</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
@@ -732,16 +739,17 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
+      <c r="F5" s="10"/>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>45189</v>
+        <v>45182</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
@@ -750,16 +758,16 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45196</v>
+        <v>45189</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
@@ -768,16 +776,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>45203</v>
+        <v>45196</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -786,16 +794,16 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>45210</v>
+        <v>45203</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
@@ -804,16 +812,16 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>45217</v>
+        <v>45210</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
@@ -822,7 +830,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
@@ -831,7 +839,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>45224</v>
+        <v>45217</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
@@ -840,7 +848,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -849,7 +857,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>45231</v>
+        <v>45224</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
@@ -858,7 +866,7 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
@@ -867,7 +875,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>45238</v>
+        <v>45231</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>11</v>
@@ -876,7 +884,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
@@ -885,7 +893,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>45245</v>
+        <v>45238</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
@@ -894,7 +902,7 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
@@ -903,57 +911,75 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45252</v>
+        <v>45245</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>45252</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="H16" s="8"/>
+        <v>56</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
+        <v>45259</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>45266</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s">
         <v>41</v>
       </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="6"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H20" s="7"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017D2B96-00D4-164E-A0B4-9FCCC4B4D773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1794275-CC62-034A-A792-5C4054FB490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -221,9 +221,6 @@
     <t>-CUyvfaNnFs</t>
   </si>
   <si>
-    <t>01-Intro_to_Course</t>
-  </si>
-  <si>
     <t>7:00 pm</t>
   </si>
   <si>
@@ -231,6 +228,15 @@
   </si>
   <si>
     <t>u6lqJwynrvc</t>
+  </si>
+  <si>
+    <t>00-Intro_to_Course</t>
+  </si>
+  <si>
+    <t>r3OyrT9MVWg</t>
+  </si>
+  <si>
+    <t>01-Intro_to_Data</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -676,16 +682,16 @@
         <v>45161</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -708,7 +714,7 @@
         <v>60</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -726,6 +732,12 @@
       </c>
       <c r="E4" t="s">
         <v>29</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1794275-CC62-034A-A792-5C4054FB490B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22659E7B-56E2-8342-992B-8DB20AB5CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
   <si>
     <t>Date</t>
   </si>
@@ -237,6 +237,10 @@
   </si>
   <si>
     <t>01-Intro_to_Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
 </sst>
 </file>
@@ -637,7 +641,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>45161</v>
       </c>
@@ -692,6 +696,9 @@
       </c>
       <c r="F2" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22659E7B-56E2-8342-992B-8DB20AB5CA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E4953-C7E8-8141-B796-9C017159A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2360" yWindow="6400" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="11940" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
   <si>
     <t>Date</t>
   </si>
@@ -241,6 +241,12 @@
   <si>
     <t xml:space="preserve">
 </t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data1</t>
+  </si>
+  <si>
+    <t>9VrWC8mLZvY</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,7 +769,12 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
       <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4E4953-C7E8-8141-B796-9C017159A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2904C7D-C6C0-324F-AC1E-E57101056EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="10280" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="11940" yWindow="10280" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,13 +797,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>45189</v>
+        <v>45188</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -1021,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1065,7 +1065,7 @@
         <v>45173</v>
       </c>
       <c r="B3" s="2">
-        <v>45182</v>
+        <v>45186</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2904C7D-C6C0-324F-AC1E-E57101056EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F6DD1-9553-A242-890F-DB466AEA124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11940" yWindow="10280" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="3720" yWindow="10260" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -247,6 +247,67 @@
   </si>
   <si>
     <t>9VrWC8mLZvY</t>
+  </si>
+  <si>
+    <t>library(ggplot2)
+library(brickset) # install.packages('brickset')
+suppressPackageStartupMessages(library(dplyr))
+data(legosets)
+# dplry::filter()
+# stats::filter()
+ggplot(legosets, aes(x=pieces, y=US_retailPrice, color=availability)) + 
+  geom_point()
+ggplot(legosets, aes(x=pieces, y=US_retailPrice, color=availability)) + 
+  geom_point(alpha = 0.3) +
+  theme_minimal()
+ggplot(legosets, aes(x=pieces, y=US_retailPrice, color=availability)) + 
+  geom_jitter()
+ggplot(legosets, aes(x = availability, y = US_retailPrice, color = availability)) + 
+  geom_point() +
+  geom_boxplot(alpha = 0.3) +
+  scale_y_log10() +
+  theme(legend.position = 'none')
+ggplot(legosets, aes(x = availability, y = US_retailPrice, color = availability)) + 
+  geom_jitter() +
+  geom_boxplot(alpha = 0.3) +
+  scale_y_log10() +
+  theme(legend.position = 'none')
+legosets2 &lt;- legosets[complete.cases(legosets),]
+ggplot(legosets2, aes(x = pieces, y = US_retailPrice, color = availability)) + 
+  geom_density2d() +
+  theme(legend.position = 'none')
+my_formula &lt;- y ~ m * x + b
+class(my_formula)
+all.vars(my_formula)
+library(psych)
+tab &lt;- describeBy(legosets$US_retailPrice,
+                  group = legosets$availability,
+                  mat = TRUE)[,c('group1', 'mean')]
+tab
+names(tab) &lt;- c('availability', 'US_retailPrice')
+ggplot(legosets, aes(x=availability, y=US_retailPrice)) + 
+  geom_boxplot() +
+  geom_point(data = tab, color = 'blue') +
+  scale_y_log10()
+ggplot(legosets, aes(x = US_retailPrice)) + geom_histogram()
+ggplot(legosets, aes(x = US_retailPrice)) + geom_histogram(bins = 50)
+ggplot(legosets, aes(x = US_retailPrice)) + geom_histogram(binwidth = 25)
+ggplot(legosets, aes(x = US_retailPrice, color = availability)) + geom_density()
+ggplot(legosets, aes(x = US_retailPrice, color = availability)) + geom_density() +
+  scale_x_log10()
+ggplot(legosets, aes(x = US_retailPrice, color = availability)) + 
+  geom_density() +
+  scale_x_log10() +
+  facet_wrap(~ availability) +
+  theme(legend.position = 'none')
+ggplot(legosets, aes(x = pieces)) +
+  geom_histogram(fill = 'blue')</t>
+  </si>
+  <si>
+    <t>02-Summarizing_Data2</t>
+  </si>
+  <si>
+    <t>duMwW2SbbWg</t>
   </si>
 </sst>
 </file>
@@ -646,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -777,7 +838,7 @@
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="76" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>45182</v>
       </c>
@@ -793,7 +854,15 @@
       <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="7"/>
+      <c r="F6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1021,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD67FB80-52EB-7F41-88A6-58F30ED23B0C}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5F6DD1-9553-A242-890F-DB466AEA124C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0647E21-5D3A-5D4F-8705-1C0D2CB88923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="10260" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t>duMwW2SbbWg</t>
+  </si>
+  <si>
+    <t>03-Probability</t>
+  </si>
+  <si>
+    <t>Y6wZPpEkWUU</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -879,6 +885,12 @@
       </c>
       <c r="E7" t="s">
         <v>29</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>73</v>
       </c>
       <c r="H7" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0647E21-5D3A-5D4F-8705-1C0D2CB88923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C5E7E-984D-E04A-B64D-7BDD92860511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -314,6 +314,12 @@
   </si>
   <si>
     <t>Y6wZPpEkWUU</t>
+  </si>
+  <si>
+    <t>27H9WUwf_FM</t>
+  </si>
+  <si>
+    <t>04-Distributions</t>
   </si>
 </sst>
 </file>
@@ -714,7 +720,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,6 +915,12 @@
       </c>
       <c r="E8" t="s">
         <v>29</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
       </c>
       <c r="H8" s="7"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4C5E7E-984D-E04A-B64D-7BDD92860511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10A6F0-2079-C445-A4F1-0C4D4C51119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2140" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="1120" yWindow="8860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -320,6 +320,12 @@
   </si>
   <si>
     <t>04-Distributions</t>
+  </si>
+  <si>
+    <t>05-Foundation_for_Inference</t>
+  </si>
+  <si>
+    <t>7PdqpiOdF5s</t>
   </si>
 </sst>
 </file>
@@ -720,7 +726,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -939,6 +945,12 @@
       </c>
       <c r="E9" t="s">
         <v>29</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
       </c>
       <c r="H9" s="8"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E10A6F0-2079-C445-A4F1-0C4D4C51119D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2A2E7-F078-C64A-921C-4643BE44B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="8860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="11780" yWindow="9200" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
   <si>
     <t>Date</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>7PdqpiOdF5s</t>
+  </si>
+  <si>
+    <t>06-Inference_for_Categorical_Data</t>
+  </si>
+  <si>
+    <t>YzDBKFWS-sI</t>
   </si>
 </sst>
 </file>
@@ -726,7 +732,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -969,6 +975,12 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
       </c>
       <c r="H10" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF2A2E7-F078-C64A-921C-4643BE44B2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0C1F9-4864-794D-827F-AECFD14A7F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11780" yWindow="9200" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -332,6 +332,12 @@
   </si>
   <si>
     <t>YzDBKFWS-sI</t>
+  </si>
+  <si>
+    <t>07-Infernece_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>ofw3HtOBH1g</t>
   </si>
 </sst>
 </file>
@@ -1000,6 +1006,12 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
+      <c r="F11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86E0C1F9-4864-794D-827F-AECFD14A7F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AFDC16-68B2-294D-9E0C-A4EC2BEE1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11780" yWindow="9200" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -334,10 +334,10 @@
     <t>YzDBKFWS-sI</t>
   </si>
   <si>
-    <t>07-Infernece_for_Numerical_Data</t>
-  </si>
-  <si>
     <t>ofw3HtOBH1g</t>
+  </si>
+  <si>
+    <t>07-Inference_for_Numerical_Data</t>
   </si>
 </sst>
 </file>
@@ -738,7 +738,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1007,10 +1007,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
         <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
       </c>
       <c r="H11" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AFDC16-68B2-294D-9E0C-A4EC2BEE1FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BD962-382D-D347-BB04-2C8879F6EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11780" yWindow="9200" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="20460" yWindow="10520" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945BD962-382D-D347-BB04-2C8879F6EDD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A306B8F-4F06-4040-8ED7-5CBEA99384F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20460" yWindow="10520" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -338,6 +338,12 @@
   </si>
   <si>
     <t>07-Inference_for_Numerical_Data</t>
+  </si>
+  <si>
+    <t>oki3Q63_8Wc</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression</t>
   </si>
 </sst>
 </file>
@@ -738,7 +744,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,6 +1035,12 @@
       </c>
       <c r="E12" t="s">
         <v>29</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
       </c>
       <c r="H12" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A306B8F-4F06-4040-8ED7-5CBEA99384F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF3BFD-F2BD-FA4E-AF0C-E54BD387C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="10520" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
+    <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
   <sheets>
     <sheet name="Meetups" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -344,6 +344,39 @@
   </si>
   <si>
     <t>08-Linear_Regression</t>
+  </si>
+  <si>
+    <t>08-Linear_Regression2</t>
+  </si>
+  <si>
+    <t>library(ggplot2)
+library(tibble)
+N &lt;- 10000
+x &lt;- rnbinom(N, 10, .5)
+df &lt;- tibble(x = x,
+				 logx = log(x + 1),
+				 x2 = max(x) - x,
+				 logx2 = log(x2 + 1),
+			 sqauredx = x2^2)
+ggplot(df, aes(x = x)) + 
+	# geom_density(color = 'blue') +
+	# geom_density(color = 'red', aes(x = logx)) +
+	# geom_density(color = 'green', aes(x = x2)) +
+	geom_density(color = 'maroon', aes(x = sqauredx))
+data(mtcars)
+lm(mpg ~ wt, data = mtcars)
+ggplot(mtcars, aes(x = wt, y = mpg)) + 
+	geom_point() +
+	geom_smooth(method = 'lm', formula = y ~ x, se = FALSE, color = 'maroon') +
+	geom_smooth(method = 'loess', formula = y ~ x, se = FALSE, color = 'blue', linetype = 3, span = 0.2) +
+	geom_smooth(method = 'loess', formula = y ~ x, se = FALSE, color = 'blue', linetype = 2, span = 0.75)
+df &lt;- data.frame(x = c('Yes', 'No'),
+				 y = c(100, 95))
+ggplot(df, aes(x = x, y = y)) + geom_bar(stat = 'identity')
+ggplot(df, aes(x = x, y = y)) + geom_bar(stat = 'identity') + coord_cartesian(ylim=c(90,100))</t>
+  </si>
+  <si>
+    <t>d-z1Vrec4E0</t>
   </si>
 </sst>
 </file>
@@ -743,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1044,7 +1077,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>45231</v>
       </c>
@@ -1060,7 +1093,15 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="F13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCF3BFD-F2BD-FA4E-AF0C-E54BD387C6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E29F54-ABED-7B48-AFE7-A8ACDED00591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -377,6 +377,12 @@
   </si>
   <si>
     <t>d-z1Vrec4E0</t>
+  </si>
+  <si>
+    <t>09-Logistic_Regression</t>
+  </si>
+  <si>
+    <t>HaqhiJmHcU4</t>
   </si>
 </sst>
 </file>
@@ -777,7 +783,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,6 +1124,12 @@
       </c>
       <c r="E14" t="s">
         <v>29</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G14" t="s">
+        <v>88</v>
       </c>
       <c r="H14" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E29F54-ABED-7B48-AFE7-A8ACDED00591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9974F9-F765-FB47-B963-4FDF2C28CA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Linear Regression Part 2</t>
-  </si>
-  <si>
-    <t>Logistic Regression</t>
   </si>
   <si>
     <t>No Meetup - Thanksgiving</t>
@@ -383,6 +380,9 @@
   </si>
   <si>
     <t>HaqhiJmHcU4</t>
+  </si>
+  <si>
+    <t>Maximum Likelihood Estimation and Logistic Regression</t>
   </si>
 </sst>
 </file>
@@ -783,7 +783,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,19 +828,19 @@
         <v>45161</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -848,10 +848,10 @@
         <v>45163</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>42</v>
@@ -860,10 +860,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -883,10 +883,10 @@
         <v>29</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
         <v>65</v>
-      </c>
-      <c r="G4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -906,10 +906,10 @@
         <v>29</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -930,13 +930,13 @@
         <v>29</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -944,7 +944,7 @@
         <v>45188</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
@@ -956,10 +956,10 @@
         <v>29</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -980,10 +980,10 @@
         <v>29</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" t="s">
         <v>75</v>
-      </c>
-      <c r="G8" t="s">
-        <v>76</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -1004,10 +1004,10 @@
         <v>29</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -1028,10 +1028,10 @@
         <v>29</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -1052,10 +1052,10 @@
         <v>29</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -1076,10 +1076,10 @@
         <v>29</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" t="s">
         <v>83</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -1100,13 +1100,13 @@
         <v>29</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>85</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1120,16 +1120,16 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H14" s="6"/>
     </row>
@@ -1156,7 +1156,7 @@
         <v>45252</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -1374,7 +1374,7 @@
         <v>45256</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9974F9-F765-FB47-B963-4FDF2C28CA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50CAC55-80E7-994D-AEEB-BB25DEEE0D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
   <si>
     <t>Date</t>
   </si>
@@ -383,6 +383,18 @@
   </si>
   <si>
     <t>Maximum Likelihood Estimation and Logistic Regression</t>
+  </si>
+  <si>
+    <t>6:00 pm</t>
+  </si>
+  <si>
+    <t>A Visual Introduction to Propensity Score Analysis</t>
+  </si>
+  <si>
+    <t>JLV4mtFhRMM</t>
+  </si>
+  <si>
+    <t>https://psa.bryer.org</t>
   </si>
 </sst>
 </file>
@@ -780,10 +792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,52 +1147,57 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>45245</v>
+        <v>45244</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="F15" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>45252</v>
+        <v>45245</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
       </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>45259</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>12</v>
+        <v>45252</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="H17" s="8"/>
+        <v>55</v>
+      </c>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>45266</v>
+        <v>45259</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>11</v>
@@ -1189,23 +1206,44 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>45266</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H21" s="7"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="7"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H15" r:id="rId1" xr:uid="{EE7EE1F7-C658-ED48-996A-06CD256DFB6A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50CAC55-80E7-994D-AEEB-BB25DEEE0D69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5654860-37A5-A746-A452-7F3C117C0367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
   <si>
     <t>Date</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>https://psa.bryer.org</t>
+  </si>
+  <si>
+    <t>3c-OGp157UY</t>
+  </si>
+  <si>
+    <t>09-Multiple-Regression</t>
   </si>
 </sst>
 </file>
@@ -794,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12B6D5-EAC3-1C40-AC8A-3C6A227098E4}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1183,6 +1189,12 @@
       </c>
       <c r="E16" t="s">
         <v>29</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" t="s">
+        <v>95</v>
       </c>
       <c r="H16" s="6"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5654860-37A5-A746-A452-7F3C117C0367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0052D14-1281-D14E-90B8-BBAF0A755312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -400,7 +400,7 @@
     <t>3c-OGp157UY</t>
   </si>
   <si>
-    <t>09-Multiple-Regression</t>
+    <t>09-Multiple_Regression</t>
   </si>
 </sst>
 </file>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0052D14-1281-D14E-90B8-BBAF0A755312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26230654-E420-7F4D-961E-BEB68BAC1398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>Date</t>
   </si>
@@ -401,6 +401,12 @@
   </si>
   <si>
     <t>09-Multiple_Regression</t>
+  </si>
+  <si>
+    <t>10-Bayesian_Analysis</t>
+  </si>
+  <si>
+    <t>Vr3egcj1YUo</t>
   </si>
 </sst>
 </file>
@@ -801,7 +807,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1222,6 +1228,12 @@
       </c>
       <c r="E18" t="s">
         <v>29</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
       </c>
       <c r="H18" s="8"/>
     </row>

--- a/Schedule.xlsx
+++ b/Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbryer/Dropbox (SPS)/Teaching/DATA606 2023 Fall/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26230654-E420-7F4D-961E-BEB68BAC1398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40D73E6-4F5B-8E48-BA51-9644BB92AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12160" yWindow="10860" windowWidth="28800" windowHeight="17500" xr2:uid="{A772458D-4E7B-8249-8B6B-34FE7D5BD316}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="100">
   <si>
     <t>Date</t>
   </si>
@@ -407,6 +407,12 @@
   </si>
   <si>
     <t>Vr3egcj1YUo</t>
+  </si>
+  <si>
+    <t>4R3xI60m0U8</t>
+  </si>
+  <si>
+    <t>11-Final_Meetup</t>
   </si>
 </sst>
 </file>
@@ -807,7 +813,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,6 +1258,12 @@
       </c>
       <c r="E19" t="s">
         <v>29</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
       </c>
       <c r="H19" s="6"/>
     </row>
